--- a/Data Clustering.xlsx
+++ b/Data Clustering.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1 PRO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DB93C51-B3C2-44CF-8D16-0528989DAC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A76A76B-1BE6-436D-8A2B-31B1C8F1A885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t>Aceh</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Beasiswa</t>
+  </si>
+  <si>
+    <t>PDRB</t>
   </si>
 </sst>
 </file>
@@ -554,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -566,7 +569,7 @@
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -576,8 +579,11 @@
       <c r="C1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -587,8 +593,11 @@
       <c r="C2">
         <v>8.2424999999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>43782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -598,8 +607,11 @@
       <c r="C3">
         <v>8.7324999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>73575</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -609,8 +621,11 @@
       <c r="C4">
         <v>8.1149999999999984</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>57047</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -620,8 +635,11 @@
       <c r="C5">
         <v>8.557500000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>165350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -631,8 +649,11 @@
       <c r="C6">
         <v>7.5975000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>86722</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -642,8 +663,11 @@
       <c r="C7">
         <v>10.489999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>75132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -653,8 +677,11 @@
       <c r="C8">
         <v>9.4474999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>49233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -664,8 +691,11 @@
       <c r="C9">
         <v>8.557500000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <v>51370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -675,8 +705,11 @@
       <c r="C10">
         <v>7.18</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <v>70194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -686,8 +719,11 @@
       <c r="C11">
         <v>13.234999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <v>161424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -697,8 +733,11 @@
       <c r="C12">
         <v>15.115</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <v>344350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -708,8 +747,11 @@
       <c r="C13">
         <v>11.49</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <v>56080</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -719,8 +761,11 @@
       <c r="C14">
         <v>9.6274999999999995</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <v>47972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -730,8 +775,11 @@
       <c r="C15">
         <v>11.38</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <v>51473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -741,8 +789,11 @@
       <c r="C16">
         <v>10.762499999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <v>75770</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -752,8 +803,11 @@
       <c r="C17">
         <v>15.122499999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <v>70276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -763,8 +817,11 @@
       <c r="C18">
         <v>9.6974999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>67319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -774,8 +831,11 @@
       <c r="C19">
         <v>7.7424999999999997</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <v>32282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -785,8 +845,11 @@
       <c r="C20">
         <v>6.1400000000000006</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <v>24272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -796,8 +859,11 @@
       <c r="C21">
         <v>6.5949999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <v>52703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -807,8 +873,11 @@
       <c r="C22">
         <v>7.9775</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <v>79320</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -818,8 +887,11 @@
       <c r="C23">
         <v>9.4725000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D23">
+        <v>67117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -829,8 +901,11 @@
       <c r="C24">
         <v>11.4725</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <v>212175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -840,8 +915,11 @@
       <c r="C25">
         <v>6.4399999999999995</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D25">
+        <v>198429</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -851,8 +929,11 @@
       <c r="C26">
         <v>11.8375</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D26">
+        <v>69352</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -862,8 +943,11 @@
       <c r="C27">
         <v>8.2624999999999993</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D27">
+        <v>120750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -873,8 +957,11 @@
       <c r="C28">
         <v>9.2199999999999989</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D28">
+        <v>73573</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -884,8 +971,11 @@
       <c r="C29">
         <v>6.7625000000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D29">
+        <v>67840</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -895,8 +985,11 @@
       <c r="C30">
         <v>6.9075000000000006</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D30">
+        <v>44433</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -906,8 +999,11 @@
       <c r="C31">
         <v>6.1050000000000004</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D31">
+        <v>42718</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -917,8 +1013,11 @@
       <c r="C32">
         <v>5.4350000000000005</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D32">
+        <v>32198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -928,8 +1027,11 @@
       <c r="C33">
         <v>8.2575000000000003</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D33">
+        <v>70660</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -939,8 +1041,11 @@
       <c r="C34">
         <v>10.385</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D34">
+        <v>131636</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -950,8 +1055,11 @@
       <c r="C35">
         <v>8.0125000000000011</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D35">
+        <v>59064</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -961,8 +1069,11 @@
       <c r="C36">
         <v>11.905000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D36">
+        <v>81009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -972,8 +1083,11 @@
       <c r="C37">
         <v>7.6675000000000004</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D37">
+        <v>61583</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -983,8 +1097,11 @@
       <c r="C38">
         <v>8.7850000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D38">
+        <v>118774</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -994,8 +1111,11 @@
       <c r="C39">
         <v>2.5150000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D39">
+        <v>18105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>38</v>
       </c>

--- a/Data Clustering.xlsx
+++ b/Data Clustering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1 PRO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A76A76B-1BE6-436D-8A2B-31B1C8F1A885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C92B80-5697-4364-984A-A82E5E42B47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
   <si>
     <t>Aceh</t>
   </si>
@@ -557,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1113,17 +1113,6 @@
       </c>
       <c r="D39">
         <v>18105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>24.53</v>
-      </c>
-      <c r="C40">
-        <v>10.274999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Data Clustering.xlsx
+++ b/Data Clustering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1 PRO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C92B80-5697-4364-984A-A82E5E42B47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89C14A0-30B2-4AF8-98D2-0B8DCC936438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
   <si>
     <t>Aceh</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>PDRB</t>
+  </si>
+  <si>
+    <t>Gini Rasio</t>
   </si>
 </sst>
 </file>
@@ -557,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -569,7 +572,7 @@
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -582,8 +585,11 @@
       <c r="D1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -596,8 +602,11 @@
       <c r="D2">
         <v>43782</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -610,8 +619,11 @@
       <c r="D3">
         <v>73575</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>0.30149999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -624,8 +636,11 @@
       <c r="D4">
         <v>57047</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -638,8 +653,11 @@
       <c r="D5">
         <v>165350</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>0.30649999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -652,8 +670,11 @@
       <c r="D6">
         <v>86722</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -666,8 +687,11 @@
       <c r="D7">
         <v>75132</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -680,8 +704,11 @@
       <c r="D8">
         <v>49233</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>0.34250000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -694,8 +721,11 @@
       <c r="D9">
         <v>51370</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>0.30149999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -708,8 +738,11 @@
       <c r="D10">
         <v>70194</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>0.23949999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -722,8 +755,11 @@
       <c r="D11">
         <v>161424</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>0.35299999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -736,8 +772,11 @@
       <c r="D12">
         <v>344350</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>0.42699999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -750,8 +789,11 @@
       <c r="D13">
         <v>56080</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>0.42449999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -764,8 +806,11 @@
       <c r="D14">
         <v>47972</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <v>0.36549999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -778,8 +823,11 @@
       <c r="D15">
         <v>51473</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>0.43149999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -792,8 +840,11 @@
       <c r="D16">
         <v>75770</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>0.3725</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -806,8 +857,11 @@
       <c r="D17">
         <v>70276</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>0.35599999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -820,8 +874,11 @@
       <c r="D18">
         <v>67319</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>0.35449999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -834,8 +891,11 @@
       <c r="D19">
         <v>32282</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>0.36249999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -848,8 +908,11 @@
       <c r="D20">
         <v>24272</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -862,8 +925,11 @@
       <c r="D21">
         <v>52703</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -876,8 +942,11 @@
       <c r="D22">
         <v>79320</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <v>0.30249999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -890,8 +959,11 @@
       <c r="D23">
         <v>67117</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -904,8 +976,11 @@
       <c r="D24">
         <v>212175</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <v>0.3155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -918,8 +993,11 @@
       <c r="D25">
         <v>198429</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>0.26150000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -932,8 +1010,11 @@
       <c r="D26">
         <v>69352</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <v>0.35349999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -946,8 +1027,11 @@
       <c r="D27">
         <v>120750</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -960,8 +1044,11 @@
       <c r="D28">
         <v>73573</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <v>0.36149999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -974,8 +1061,11 @@
       <c r="D29">
         <v>67840</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <v>0.36749999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -988,8 +1078,11 @@
       <c r="D30">
         <v>44433</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <v>0.41349999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1002,8 +1095,11 @@
       <c r="D31">
         <v>42718</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <v>0.34199999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1016,8 +1112,11 @@
       <c r="D32">
         <v>32198</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <v>0.28649999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1030,8 +1129,11 @@
       <c r="D33">
         <v>70660</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <v>0.30599999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1044,8 +1146,11 @@
       <c r="D34">
         <v>131636</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <v>0.38700000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1058,8 +1163,11 @@
       <c r="D35">
         <v>59064</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E35">
+        <v>0.34649999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1072,8 +1180,11 @@
       <c r="D36">
         <v>81009</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E36">
+        <v>0.38350000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1086,8 +1197,11 @@
       <c r="D37">
         <v>61583</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E37">
+        <v>0.41400000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1100,8 +1214,11 @@
       <c r="D38">
         <v>118774</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1113,6 +1230,9 @@
       </c>
       <c r="D39">
         <v>18105</v>
+      </c>
+      <c r="E39">
+        <v>0.34299999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/Data Clustering.xlsx
+++ b/Data Clustering.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1 PRO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89C14A0-30B2-4AF8-98D2-0B8DCC936438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A33ABB-AA86-42F5-8588-0EEF6179C45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
   <si>
     <t>Aceh</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>Gini Rasio</t>
+  </si>
+  <si>
+    <t>Miskin</t>
+  </si>
+  <si>
+    <t>Lama Sekolah</t>
   </si>
 </sst>
 </file>
@@ -219,7 +225,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -560,19 +567,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -588,8 +596,14 @@
       <c r="E1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -605,8 +619,14 @@
       <c r="E2">
         <v>0.29399999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2">
+        <v>0.13435</v>
+      </c>
+      <c r="G2" s="1">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -622,8 +642,14 @@
       <c r="E3">
         <v>0.30149999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3">
+        <v>7.5899999999999995E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -639,8 +665,14 @@
       <c r="E4">
         <v>0.28499999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4">
+        <v>5.6950000000000001E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>9.7200000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -656,8 +688,14 @@
       <c r="E5">
         <v>0.30649999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <v>6.515E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -673,8 +711,14 @@
       <c r="E6">
         <v>0.318</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6">
+        <v>7.1800000000000003E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -690,8 +734,14 @@
       <c r="E7">
         <v>0.33200000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <v>0.1074</v>
+      </c>
+      <c r="G7" s="1">
+        <v>8.98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -707,8 +757,14 @@
       <c r="E8">
         <v>0.34250000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <v>0.13039999999999999</v>
+      </c>
+      <c r="G8" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -724,8 +780,14 @@
       <c r="E9">
         <v>0.30149999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <v>0.10654999999999999</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -741,8 +803,14 @@
       <c r="E10">
         <v>0.23949999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10">
+        <v>4.8149999999999998E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>8.7799999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -758,8 +826,14 @@
       <c r="E11">
         <v>0.35299999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <v>5.0750000000000003E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -775,8 +849,14 @@
       <c r="E12">
         <v>0.42699999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <v>4.2199999999999994E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>11.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -792,8 +872,14 @@
       <c r="E13">
         <v>0.42449999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13">
+        <v>7.2700000000000001E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -809,8 +895,14 @@
       <c r="E14">
         <v>0.36549999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14">
+        <v>0.10025000000000001</v>
+      </c>
+      <c r="G14" s="1">
+        <v>8.4700000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -826,8 +918,14 @@
       <c r="E15">
         <v>0.43149999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15">
+        <v>0.10615000000000001</v>
+      </c>
+      <c r="G15" s="1">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -843,8 +941,14 @@
       <c r="E16">
         <v>0.3725</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16">
+        <v>9.6750000000000003E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>8.69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -860,8 +964,14 @@
       <c r="E17">
         <v>0.35599999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <v>5.7699999999999994E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>9.5500000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -877,8 +987,14 @@
       <c r="E18">
         <v>0.35449999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>9.8699999999999992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -894,8 +1010,14 @@
       <c r="E19">
         <v>0.36249999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19">
+        <v>0.1241</v>
+      </c>
+      <c r="G19" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -911,8 +1033,14 @@
       <c r="E20">
         <v>0.316</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <v>0.1925</v>
+      </c>
+      <c r="G20" s="1">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -928,8 +1056,14 @@
       <c r="E21">
         <v>0.312</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21">
+        <v>6.2850000000000003E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>8.2799999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -945,8 +1079,14 @@
       <c r="E22">
         <v>0.30249999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22">
+        <v>5.2150000000000002E-2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>9.17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -962,8 +1102,14 @@
       <c r="E23">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23">
+        <v>4.0649999999999992E-2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>9.02</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -979,8 +1125,14 @@
       <c r="E24">
         <v>0.3155</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24">
+        <v>5.6449999999999993E-2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -996,8 +1148,14 @@
       <c r="E25">
         <v>0.26150000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25">
+        <v>5.8499999999999996E-2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1013,8 +1171,14 @@
       <c r="E26">
         <v>0.35349999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26">
+        <v>6.9749999999999993E-2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1030,8 +1194,14 @@
       <c r="E27">
         <v>0.30499999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27">
+        <v>0.11405</v>
+      </c>
+      <c r="G27" s="1">
+        <v>9.2799999999999994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1047,8 +1217,14 @@
       <c r="E28">
         <v>0.36149999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28">
+        <v>7.9149999999999998E-2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>9.2200000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1064,8 +1240,14 @@
       <c r="E29">
         <v>0.36749999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29">
+        <v>0.10920000000000002</v>
+      </c>
+      <c r="G29" s="1">
+        <v>9.74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1081,8 +1263,14 @@
       <c r="E30">
         <v>0.41349999999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30">
+        <v>0.14219999999999999</v>
+      </c>
+      <c r="G30" s="1">
+        <v>8.64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1098,8 +1286,14 @@
       <c r="E31">
         <v>0.34199999999999997</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31">
+        <v>0.1096</v>
+      </c>
+      <c r="G31" s="1">
+        <v>8.56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1115,8 +1309,14 @@
       <c r="E32">
         <v>0.28649999999999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32">
+        <v>0.15914999999999999</v>
+      </c>
+      <c r="G32" s="1">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1132,8 +1332,14 @@
       <c r="E33">
         <v>0.30599999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33">
+        <v>6.1750000000000006E-2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1149,8 +1355,14 @@
       <c r="E34">
         <v>0.38700000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34">
+        <v>0.21375</v>
+      </c>
+      <c r="G34" s="1">
+        <v>9.8699999999999992</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1166,8 +1378,14 @@
       <c r="E35">
         <v>0.34649999999999997</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35">
+        <v>0.1754</v>
+      </c>
+      <c r="G35" s="1">
+        <v>10.48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1183,8 +1401,14 @@
       <c r="E36">
         <v>0.38350000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36">
+        <v>0.17675000000000002</v>
+      </c>
+      <c r="G36" s="1">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1200,8 +1424,14 @@
       <c r="E37">
         <v>0.41400000000000003</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F37">
+        <v>0.18395000000000003</v>
+      </c>
+      <c r="G37" s="1">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1217,8 +1447,14 @@
       <c r="E38">
         <v>0.36799999999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38">
+        <v>0.2868</v>
+      </c>
+      <c r="G38" s="1">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1233,6 +1469,17 @@
       </c>
       <c r="E39">
         <v>0.34299999999999997</v>
+      </c>
+      <c r="F39">
+        <v>0.31314999999999998</v>
+      </c>
+      <c r="G39" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G40" s="1">
+        <v>9.2200000000000006</v>
       </c>
     </row>
   </sheetData>
